--- a/src/main/resources/templates/T_MANUAL_NEWS_EC_LIST_STATE.xlsx
+++ b/src/main/resources/templates/T_MANUAL_NEWS_EC_LIST_STATE.xlsx
@@ -16,35 +16,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>新料号简称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品中文名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>料号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧料号简称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧中文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧料号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料号简称</t>
+  </si>
+  <si>
+    <t>是否跟踪</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>系列</t>
+  </si>
+  <si>
+    <t>事业部</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,53 +47,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF336699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2ECF5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -107,39 +70,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -447,7 +383,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -460,28 +396,28 @@
     <col min="6" max="6" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
